--- a/outputs/needs_match.xlsx
+++ b/outputs/needs_match.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>AIR-INK: Air-Pollution to ink</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>BMW Foundation Herbert Quandt</t>
-  </si>
-  <si>
-    <t>Buenos Aires Innovation Park (City of Buenos Aires Government)</t>
   </si>
   <si>
     <t>C L Sandberg &amp; Associates</t>
@@ -590,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -904,34 +901,34 @@
         <v>35</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -940,64 +937,64 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -1014,19 +1011,19 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -1035,19 +1032,19 @@
         <v>3</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1056,7 +1053,7 @@
         <v>2</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>2</v>
@@ -1065,19 +1062,19 @@
         <v>1</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W5">
         <v>1</v>
       </c>
       <c r="X5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y5">
         <v>1</v>
       </c>
       <c r="Z5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -1089,13 +1086,13 @@
         <v>1</v>
       </c>
       <c r="AD5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE5">
         <v>3</v>
       </c>
       <c r="AF5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG5">
         <v>2</v>
@@ -1106,7 +1103,7 @@
         <v>37</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1115,37 +1112,37 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P6">
         <v>3</v>
@@ -1154,52 +1151,52 @@
         <v>1</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W6">
         <v>1</v>
       </c>
       <c r="X6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y6">
         <v>1</v>
       </c>
       <c r="Z6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA6">
         <v>1</v>
       </c>
       <c r="AB6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC6">
         <v>1</v>
       </c>
       <c r="AD6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -1210,16 +1207,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1234,10 +1231,10 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -1246,19 +1243,19 @@
         <v>3</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -1267,37 +1264,37 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>2</v>
       </c>
       <c r="Y7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG7">
         <v>1</v>
@@ -1311,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1323,43 +1320,43 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -1371,34 +1368,34 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG8">
         <v>1</v>
@@ -1409,13 +1406,13 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1436,25 +1433,25 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -1466,40 +1463,40 @@
         <v>1</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
         <v>1</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <v>1</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>1</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9">
         <v>1</v>
       </c>
       <c r="AE9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9">
         <v>1</v>
@@ -1510,16 +1507,16 @@
         <v>41</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1534,28 +1531,28 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>1</v>
@@ -1564,16 +1561,16 @@
         <v>1</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <v>1</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <v>1</v>
@@ -1582,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1591,7 +1588,7 @@
         <v>1</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
         <v>1</v>
@@ -1600,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG10">
         <v>1</v>
@@ -1614,46 +1611,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -1662,49 +1659,49 @@
         <v>1</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W11">
         <v>1</v>
       </c>
       <c r="X11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC11">
         <v>1</v>
       </c>
       <c r="AD11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -1712,100 +1709,100 @@
         <v>43</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12">
         <v>1</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12">
         <v>2</v>
       </c>
       <c r="AE12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -1813,13 +1810,13 @@
         <v>44</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1828,85 +1825,85 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
         <v>1</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13">
         <v>1</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13">
         <v>2</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13">
         <v>2</v>
       </c>
       <c r="AE13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -1917,40 +1914,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1959,16 +1956,16 @@
         <v>2</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1977,37 +1974,37 @@
         <v>1</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y14">
         <v>1</v>
       </c>
       <c r="Z14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <v>1</v>
       </c>
       <c r="AB14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -2021,10 +2018,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2036,19 +2033,19 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -2060,10 +2057,10 @@
         <v>2</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
         <v>2</v>
@@ -2078,10 +2075,10 @@
         <v>1</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y15">
         <v>1</v>
@@ -2093,22 +2090,22 @@
         <v>1</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15">
         <v>1</v>
       </c>
       <c r="AE15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -2116,100 +2113,100 @@
         <v>47</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q16">
         <v>1</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W16">
         <v>1</v>
       </c>
       <c r="X16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y16">
         <v>1</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>1</v>
       </c>
       <c r="AB16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC16">
         <v>1</v>
       </c>
       <c r="AD16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG16">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -2217,7 +2214,7 @@
         <v>48</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2226,91 +2223,91 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>2</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
         <v>4</v>
       </c>
-      <c r="H17">
-        <v>4</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>3</v>
-      </c>
-      <c r="M17">
-        <v>2</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>3</v>
-      </c>
-      <c r="P17">
-        <v>3</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>2</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>3</v>
-      </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-      <c r="V17">
-        <v>3</v>
-      </c>
-      <c r="W17">
-        <v>1</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
       <c r="Y17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC17">
         <v>1</v>
       </c>
       <c r="AD17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -2321,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2333,22 +2330,22 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -2372,7 +2369,7 @@
         <v>3</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -2384,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="X18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2405,13 +2402,13 @@
         <v>1</v>
       </c>
       <c r="AE18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>3</v>
       </c>
       <c r="AG18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -2422,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2434,22 +2431,22 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -2470,10 +2467,10 @@
         <v>1</v>
       </c>
       <c r="S19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2506,13 +2503,13 @@
         <v>1</v>
       </c>
       <c r="AE19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -2529,19 +2526,19 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -2550,19 +2547,19 @@
         <v>1</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -2571,7 +2568,7 @@
         <v>1</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -2580,19 +2577,19 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>1</v>
       </c>
       <c r="X20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA20">
         <v>0</v>
@@ -2630,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2639,16 +2636,16 @@
         <v>2</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -2657,13 +2654,13 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O21">
         <v>1</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -2672,10 +2669,10 @@
         <v>1</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -2687,31 +2684,31 @@
         <v>1</v>
       </c>
       <c r="X21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC21">
         <v>1</v>
       </c>
       <c r="AD21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG21">
         <v>2</v>
@@ -2722,46 +2719,46 @@
         <v>53</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>2</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22">
         <v>2</v>
@@ -2770,49 +2767,49 @@
         <v>1</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T22">
         <v>2</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22">
         <v>1</v>
       </c>
       <c r="X22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y22">
         <v>1</v>
       </c>
       <c r="Z22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA22">
         <v>1</v>
       </c>
       <c r="AB22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC22">
         <v>1</v>
       </c>
       <c r="AD22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE22">
         <v>3</v>
       </c>
       <c r="AF22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG22">
         <v>2</v>
@@ -2823,7 +2820,7 @@
         <v>54</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2832,37 +2829,37 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P23">
         <v>2</v>
@@ -2871,19 +2868,19 @@
         <v>1</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S23">
         <v>2</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W23">
         <v>1</v>
@@ -2895,28 +2892,28 @@
         <v>1</v>
       </c>
       <c r="Z23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA23">
         <v>1</v>
       </c>
       <c r="AB23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC23">
         <v>1</v>
       </c>
       <c r="AD23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -2924,13 +2921,13 @@
         <v>55</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2942,22 +2939,22 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -2966,52 +2963,52 @@
         <v>1</v>
       </c>
       <c r="P24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
         <v>1</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T24">
         <v>1</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24">
         <v>1</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24">
         <v>2</v>
       </c>
       <c r="Y24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>2</v>
@@ -3025,46 +3022,46 @@
         <v>56</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>1</v>
       </c>
       <c r="N25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -3073,16 +3070,16 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <v>1</v>
@@ -3091,34 +3088,34 @@
         <v>0</v>
       </c>
       <c r="X25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25">
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>2</v>
       </c>
       <c r="AG25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:33">
@@ -3126,100 +3123,100 @@
         <v>57</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26">
         <v>1</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y26">
         <v>1</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -3227,100 +3224,100 @@
         <v>58</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27">
         <v>1</v>
       </c>
       <c r="N27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG27">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:33">
@@ -3328,7 +3325,7 @@
         <v>59</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3337,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -3346,16 +3343,16 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -3364,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -3376,16 +3373,16 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28">
         <v>1</v>
@@ -3397,31 +3394,31 @@
         <v>2</v>
       </c>
       <c r="Y28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28">
         <v>2</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC28">
         <v>0</v>
       </c>
       <c r="AD28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF28">
         <v>2</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -3429,7 +3426,7 @@
         <v>60</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -3438,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -3453,61 +3450,61 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <v>4</v>
       </c>
-      <c r="T29">
-        <v>2</v>
-      </c>
       <c r="U29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -3519,10 +3516,10 @@
         <v>2</v>
       </c>
       <c r="AF29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG29">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:33">
@@ -3530,7 +3527,7 @@
         <v>61</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3539,58 +3536,58 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W30">
         <v>0</v>
@@ -3608,22 +3605,22 @@
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC30">
         <v>0</v>
       </c>
       <c r="AD30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG30">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:33">
@@ -3631,31 +3628,31 @@
         <v>62</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -3667,43 +3664,43 @@
         <v>1</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31">
         <v>1</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA31">
         <v>0</v>
@@ -3712,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -3721,7 +3718,7 @@
         <v>1</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG31">
         <v>1</v>
@@ -3744,34 +3741,34 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>3</v>
       </c>
       <c r="O32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P32">
         <v>2</v>
@@ -3786,40 +3783,40 @@
         <v>2</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
       <c r="V32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W32">
         <v>1</v>
       </c>
       <c r="X32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC32">
         <v>1</v>
       </c>
       <c r="AD32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF32">
         <v>2</v>
@@ -3839,19 +3836,19 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3860,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3869,22 +3866,22 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T33">
         <v>1</v>
@@ -3893,40 +3890,40 @@
         <v>0</v>
       </c>
       <c r="V33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>1</v>
       </c>
       <c r="Z33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA33">
         <v>1</v>
       </c>
       <c r="AB33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:33">
@@ -3937,19 +3934,19 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3964,28 +3961,28 @@
         <v>1</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T34">
         <v>1</v>
@@ -3994,40 +3991,40 @@
         <v>0</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB34">
         <v>1</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -4038,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -4050,28 +4047,28 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -4089,7 +4086,7 @@
         <v>2</v>
       </c>
       <c r="T35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -4107,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA35">
         <v>0</v>
@@ -4119,16 +4116,16 @@
         <v>1</v>
       </c>
       <c r="AD35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:33">
@@ -4142,28 +4139,28 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -4172,22 +4169,22 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -4196,40 +4193,40 @@
         <v>0</v>
       </c>
       <c r="V36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36">
         <v>0</v>
       </c>
       <c r="AB36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD36">
         <v>0</v>
       </c>
       <c r="AE36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:33">
@@ -4240,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -4252,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4261,19 +4258,19 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -4291,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -4309,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37">
         <v>0</v>
@@ -4321,16 +4318,16 @@
         <v>0</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>1</v>
       </c>
       <c r="AG37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:33">
@@ -4341,85 +4338,85 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38">
         <v>0</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y38">
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA38">
         <v>0</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38">
         <v>1</v>
@@ -4428,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="AF38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG38">
         <v>1</v>
@@ -4445,94 +4442,94 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U39">
         <v>0</v>
       </c>
       <c r="V39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA39">
         <v>0</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG39">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:33">
@@ -4546,194 +4543,93 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G40">
         <v>2</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U40">
         <v>0</v>
       </c>
       <c r="V40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA40">
         <v>0</v>
       </c>
       <c r="AB40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33">
-      <c r="A41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41">
-        <v>2</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>2</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>2</v>
-      </c>
-      <c r="O41">
-        <v>2</v>
-      </c>
-      <c r="P41">
-        <v>2</v>
-      </c>
-      <c r="Q41">
-        <v>1</v>
-      </c>
-      <c r="R41">
-        <v>1</v>
-      </c>
-      <c r="S41">
-        <v>3</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>2</v>
-      </c>
-      <c r="W41">
-        <v>1</v>
-      </c>
-      <c r="X41">
-        <v>3</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>2</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AB41">
-        <v>1</v>
-      </c>
-      <c r="AC41">
-        <v>1</v>
-      </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
-      <c r="AE41">
-        <v>1</v>
-      </c>
-      <c r="AF41">
-        <v>2</v>
-      </c>
-      <c r="AG41">
         <v>1</v>
       </c>
     </row>

--- a/outputs/needs_match.xlsx
+++ b/outputs/needs_match.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>AIR-INK: Air-Pollution to ink</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>BMW Foundation Herbert Quandt</t>
+  </si>
+  <si>
+    <t>Buenos Aires Innovation Park (City of Buenos Aires Government)</t>
   </si>
   <si>
     <t>C L Sandberg &amp; Associates</t>
@@ -587,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -901,34 +904,34 @@
         <v>35</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -937,64 +940,64 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -1011,19 +1014,19 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -1032,19 +1035,19 @@
         <v>3</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -1053,7 +1056,7 @@
         <v>2</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T5">
         <v>2</v>
@@ -1062,19 +1065,19 @@
         <v>1</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W5">
         <v>1</v>
       </c>
       <c r="X5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y5">
         <v>1</v>
       </c>
       <c r="Z5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -1086,13 +1089,13 @@
         <v>1</v>
       </c>
       <c r="AD5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE5">
         <v>3</v>
       </c>
       <c r="AF5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG5">
         <v>2</v>
@@ -1103,7 +1106,7 @@
         <v>37</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1112,37 +1115,37 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P6">
         <v>3</v>
@@ -1151,52 +1154,52 @@
         <v>1</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W6">
         <v>1</v>
       </c>
       <c r="X6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y6">
         <v>1</v>
       </c>
       <c r="Z6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA6">
         <v>1</v>
       </c>
       <c r="AB6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC6">
         <v>1</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -1207,16 +1210,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1231,10 +1234,10 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -1243,19 +1246,19 @@
         <v>3</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -1264,37 +1267,37 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
         <v>2</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG7">
         <v>1</v>
@@ -1308,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1320,43 +1323,43 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O8">
         <v>1</v>
       </c>
       <c r="P8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -1368,34 +1371,34 @@
         <v>1</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG8">
         <v>1</v>
@@ -1406,13 +1409,13 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1433,25 +1436,25 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -1463,40 +1466,40 @@
         <v>1</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>1</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <v>1</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <v>1</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
         <v>1</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9">
         <v>1</v>
@@ -1507,16 +1510,16 @@
         <v>41</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1531,28 +1534,28 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <v>1</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>1</v>
@@ -1561,16 +1564,16 @@
         <v>1</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
         <v>1</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
         <v>1</v>
@@ -1579,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -1588,7 +1591,7 @@
         <v>1</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10">
         <v>1</v>
@@ -1597,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="AF10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG10">
         <v>1</v>
@@ -1611,46 +1614,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -1659,49 +1662,49 @@
         <v>1</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
       </c>
       <c r="V11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W11">
         <v>1</v>
       </c>
       <c r="X11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC11">
         <v>1</v>
       </c>
       <c r="AD11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -1709,100 +1712,100 @@
         <v>43</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
         <v>1</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12">
         <v>2</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -1810,13 +1813,13 @@
         <v>44</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1825,85 +1828,85 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="P13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13">
         <v>1</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13">
         <v>1</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13">
         <v>2</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13">
         <v>2</v>
       </c>
       <c r="AE13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -1914,40 +1917,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -1956,16 +1959,16 @@
         <v>2</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -1974,37 +1977,37 @@
         <v>1</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y14">
         <v>1</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA14">
         <v>1</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -2018,10 +2021,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2033,19 +2036,19 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -2057,10 +2060,10 @@
         <v>2</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>2</v>
@@ -2075,10 +2078,10 @@
         <v>1</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>1</v>
@@ -2090,22 +2093,22 @@
         <v>1</v>
       </c>
       <c r="AB15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15">
         <v>1</v>
       </c>
       <c r="AE15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -2113,100 +2116,100 @@
         <v>47</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q16">
         <v>1</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>1</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y16">
         <v>1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
         <v>1</v>
       </c>
       <c r="AB16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC16">
         <v>1</v>
       </c>
       <c r="AD16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -2214,7 +2217,7 @@
         <v>48</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2223,91 +2226,91 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W17">
         <v>1</v>
       </c>
       <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>1</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>3</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
         <v>4</v>
       </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>3</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>1</v>
-      </c>
-      <c r="AC17">
-        <v>1</v>
-      </c>
-      <c r="AD17">
-        <v>1</v>
-      </c>
       <c r="AE17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG17">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -2318,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2330,22 +2333,22 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -2369,7 +2372,7 @@
         <v>3</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -2381,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="X18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2402,13 +2405,13 @@
         <v>1</v>
       </c>
       <c r="AE18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF18">
         <v>3</v>
       </c>
       <c r="AG18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -2419,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2431,22 +2434,22 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -2467,10 +2470,10 @@
         <v>1</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -2503,13 +2506,13 @@
         <v>1</v>
       </c>
       <c r="AE19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -2526,19 +2529,19 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -2547,19 +2550,19 @@
         <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q20">
         <v>1</v>
@@ -2568,7 +2571,7 @@
         <v>1</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -2577,19 +2580,19 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20">
         <v>1</v>
       </c>
       <c r="X20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA20">
         <v>0</v>
@@ -2627,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2636,16 +2639,16 @@
         <v>2</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -2654,13 +2657,13 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O21">
         <v>1</v>
       </c>
       <c r="P21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -2669,10 +2672,10 @@
         <v>1</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -2684,31 +2687,31 @@
         <v>1</v>
       </c>
       <c r="X21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC21">
         <v>1</v>
       </c>
       <c r="AD21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG21">
         <v>2</v>
@@ -2719,46 +2722,46 @@
         <v>53</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>2</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>2</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P22">
         <v>2</v>
@@ -2767,49 +2770,49 @@
         <v>1</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T22">
         <v>2</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W22">
         <v>1</v>
       </c>
       <c r="X22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y22">
         <v>1</v>
       </c>
       <c r="Z22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA22">
         <v>1</v>
       </c>
       <c r="AB22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC22">
         <v>1</v>
       </c>
       <c r="AD22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE22">
         <v>3</v>
       </c>
       <c r="AF22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG22">
         <v>2</v>
@@ -2820,7 +2823,7 @@
         <v>54</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2829,37 +2832,37 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23">
         <v>2</v>
@@ -2868,19 +2871,19 @@
         <v>1</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S23">
         <v>2</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W23">
         <v>1</v>
@@ -2892,28 +2895,28 @@
         <v>1</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA23">
         <v>1</v>
       </c>
       <c r="AB23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC23">
         <v>1</v>
       </c>
       <c r="AD23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -2921,13 +2924,13 @@
         <v>55</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2939,22 +2942,22 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -2963,52 +2966,52 @@
         <v>1</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
         <v>1</v>
       </c>
       <c r="S24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T24">
         <v>1</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24">
         <v>1</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24">
         <v>2</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF24">
         <v>2</v>
@@ -3022,46 +3025,46 @@
         <v>56</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <v>1</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -3070,16 +3073,16 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25">
         <v>1</v>
@@ -3088,34 +3091,34 @@
         <v>0</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25">
         <v>0</v>
       </c>
       <c r="AD25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>2</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:33">
@@ -3123,100 +3126,100 @@
         <v>57</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>1</v>
       </c>
       <c r="N26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>1</v>
       </c>
       <c r="Z26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG26">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -3224,100 +3227,100 @@
         <v>58</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27">
         <v>1</v>
       </c>
       <c r="N27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AF27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:33">
@@ -3325,7 +3328,7 @@
         <v>59</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3334,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -3343,16 +3346,16 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -3361,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="N28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -3373,16 +3376,16 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28">
         <v>1</v>
@@ -3394,31 +3397,31 @@
         <v>2</v>
       </c>
       <c r="Y28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28">
         <v>2</v>
       </c>
       <c r="AA28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC28">
         <v>0</v>
       </c>
       <c r="AD28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>2</v>
       </c>
       <c r="AG28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -3426,7 +3429,7 @@
         <v>60</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -3435,76 +3438,76 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
         <v>4</v>
       </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>3</v>
-      </c>
-      <c r="K29">
-        <v>4</v>
-      </c>
-      <c r="L29">
-        <v>4</v>
-      </c>
-      <c r="M29">
-        <v>4</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>4</v>
-      </c>
-      <c r="P29">
-        <v>4</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
       <c r="T29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC29">
         <v>0</v>
@@ -3516,10 +3519,10 @@
         <v>2</v>
       </c>
       <c r="AF29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG29">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:33">
@@ -3527,7 +3530,7 @@
         <v>61</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3536,58 +3539,58 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W30">
         <v>0</v>
@@ -3605,22 +3608,22 @@
         <v>0</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC30">
         <v>0</v>
       </c>
       <c r="AD30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG30">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:33">
@@ -3628,31 +3631,31 @@
         <v>62</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -3664,43 +3667,43 @@
         <v>1</v>
       </c>
       <c r="N31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31">
         <v>1</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA31">
         <v>0</v>
@@ -3709,7 +3712,7 @@
         <v>1</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -3718,7 +3721,7 @@
         <v>1</v>
       </c>
       <c r="AF31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG31">
         <v>1</v>
@@ -3741,34 +3744,34 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32">
         <v>3</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P32">
         <v>2</v>
@@ -3783,40 +3786,40 @@
         <v>2</v>
       </c>
       <c r="T32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
       <c r="V32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W32">
         <v>1</v>
       </c>
       <c r="X32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC32">
         <v>1</v>
       </c>
       <c r="AD32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>2</v>
@@ -3836,19 +3839,19 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3857,7 +3860,7 @@
         <v>1</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3866,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T33">
         <v>1</v>
@@ -3890,40 +3893,40 @@
         <v>0</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33">
         <v>1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA33">
         <v>1</v>
       </c>
       <c r="AB33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:33">
@@ -3934,19 +3937,19 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3961,28 +3964,28 @@
         <v>1</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T34">
         <v>1</v>
@@ -3991,40 +3994,40 @@
         <v>0</v>
       </c>
       <c r="V34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34">
         <v>1</v>
       </c>
       <c r="AC34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -4035,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -4047,28 +4050,28 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -4086,7 +4089,7 @@
         <v>2</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -4104,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA35">
         <v>0</v>
@@ -4116,16 +4119,16 @@
         <v>1</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:33">
@@ -4139,28 +4142,28 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -4169,22 +4172,22 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -4193,40 +4196,40 @@
         <v>0</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36">
         <v>0</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36">
         <v>0</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:33">
@@ -4237,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -4249,7 +4252,7 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4258,19 +4261,19 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37">
         <v>0</v>
@@ -4288,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="T37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -4306,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA37">
         <v>0</v>
@@ -4318,16 +4321,16 @@
         <v>0</v>
       </c>
       <c r="AD37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>1</v>
       </c>
       <c r="AG37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:33">
@@ -4338,85 +4341,85 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38">
         <v>0</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y38">
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA38">
         <v>0</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38">
         <v>1</v>
@@ -4425,7 +4428,7 @@
         <v>1</v>
       </c>
       <c r="AF38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG38">
         <v>1</v>
@@ -4442,94 +4445,94 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U39">
         <v>0</v>
       </c>
       <c r="V39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA39">
         <v>0</v>
       </c>
       <c r="AB39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG39">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:33">
@@ -4543,93 +4546,194 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G40">
         <v>2</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U40">
         <v>0</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA40">
         <v>0</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33">
+      <c r="A41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41">
+        <v>2</v>
+      </c>
+      <c r="P41">
+        <v>2</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>3</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>2</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>3</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>2</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>1</v>
+      </c>
+      <c r="AC41">
+        <v>1</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
+      </c>
+      <c r="AF41">
+        <v>2</v>
+      </c>
+      <c r="AG41">
         <v>1</v>
       </c>
     </row>
